--- a/public/import/Examen.xlsx
+++ b/public/import/Examen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\smasys\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D40F54-7A39-4290-85A7-DEE24CAFD0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2261A04-A57D-4778-AB6B-64C498B044BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>codigo</t>
   </si>
@@ -125,13 +125,19 @@
   </si>
   <si>
     <t>nombre</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>RADIOLOGÍA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +147,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,9 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +530,7 @@
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -531,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -542,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -553,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -564,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -575,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -586,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -597,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -608,78 +629,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -690,13 +712,25 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
 </worksheet>

--- a/public/import/Examen.xlsx
+++ b/public/import/Examen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\smasys\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2261A04-A57D-4778-AB6B-64C498B044BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAE312-CCF9-4700-9CF9-2DB880AFA426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>codigo</t>
   </si>
@@ -100,9 +100,6 @@
     <t>ESPIROMETRÍA</t>
   </si>
   <si>
-    <t>TRABAJO ALTURA</t>
-  </si>
-  <si>
     <t>ESPACIO CONFINADO</t>
   </si>
   <si>
@@ -131,6 +128,36 @@
   </si>
   <si>
     <t>RADIOLOGÍA</t>
+  </si>
+  <si>
+    <t>T. ALTURA A PARTIR DE 1.8M</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>T.ALTURA &gt; A 2,500 MSNM</t>
+  </si>
+  <si>
+    <t>COVID19 - ANTIGENO</t>
+  </si>
+  <si>
+    <t>COVID19 - PRUEBA RÁPIDA</t>
+  </si>
+  <si>
+    <t>COVID19 - PCR</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>tipo</t>
   </si>
 </sst>
 </file>
@@ -517,31 +544,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -549,10 +580,13 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -560,10 +594,13 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -571,10 +608,13 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -582,10 +622,13 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -593,10 +636,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -604,10 +650,13 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -615,10 +664,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -626,106 +678,193 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>0</v>
       </c>
     </row>

--- a/public/import/Examen.xlsx
+++ b/public/import/Examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\smasys\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAE312-CCF9-4700-9CF9-2DB880AFA426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72DDCE-B4F0-47A2-BE4A-AE8EDC0A5B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>codigo</t>
   </si>
@@ -158,6 +158,24 @@
   </si>
   <si>
     <t>tipo</t>
+  </si>
+  <si>
+    <t>LAB. UROCULTIVO</t>
+  </si>
+  <si>
+    <t>LAB. TOXICOLÓGICO</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>LAB. METALES PESADOS</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -544,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +886,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/import/Examen.xlsx
+++ b/public/import/Examen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\smasys\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72DDCE-B4F0-47A2-BE4A-AE8EDC0A5B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5442C3F9-BA15-484D-AE89-E7E2EE14842C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>codigo</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>PSICOSOMETRICA</t>
   </si>
 </sst>
 </file>
@@ -562,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,6 +934,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
